--- a/bio_diversity/static/data_templates/mactaquac-feeding.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-feeding.xlsx
@@ -23,8 +23,148 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of the Tank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Feeding method, matching feeding method in database, eg. Automatic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, frequency of feeding. Eg. Daily, Hourly, One Time</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of feed, must match Feed Code in database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Size of feed, should be a number. Eg 0.5, 1, 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of feed, must match Feed Code in database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Size of feed, should be a number. Eg 0.5, 1, 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of feed, must match Feed Code in database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Size of feed, should be a number. Eg 0.5, 1, 2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tank</t>
   </si>
@@ -51,19 +191,31 @@
   </si>
   <si>
     <t>Feed Size 3</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Add extra feed columns if needed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -101,9 +253,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,26 +536,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,26 +568,33 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac-feeding.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-feeding.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFE97BF-052E-4238-8C42-DD82B57B6C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedings" sheetId="1" r:id="rId1"/>
@@ -23,148 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Name of the Tank</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Feeding method, matching feeding method in database, eg. Automatic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, frequency of feeding. Eg. Daily, Hourly, One Time</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Type of feed, must match Feed Code in database</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Size of feed, should be a number. Eg 0.5, 1, 2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Type of feed, must match Feed Code in database</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Size of feed, should be a number. Eg 0.5, 1, 2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Type of feed, must match Feed Code in database</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Size of feed, should be a number. Eg 0.5, 1, 2</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Tank</t>
   </si>
@@ -197,12 +58,33 @@
   </si>
   <si>
     <t>Add extra feed columns if needed</t>
+  </si>
+  <si>
+    <t>Name of the Tank</t>
+  </si>
+  <si>
+    <t>Must match feeding method in database. Eg Automatic</t>
+  </si>
+  <si>
+    <t>Optional. Frequency of feeding. Eg. Daily, 1/minute.</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Feed type must match feed code in database</t>
+  </si>
+  <si>
+    <t>Size of feed, numeric. Eg. 0.5, 1, 3</t>
+  </si>
+  <si>
+    <t>Use same format for columns as feed types 1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,8 +94,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -232,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -249,14 +131,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,44 +473,78 @@
     <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac-feeding.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-feeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFE97BF-052E-4238-8C42-DD82B57B6C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E6559-37E4-4696-86E0-419CDDB4186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Add extra feed columns if needed</t>
   </si>
   <si>
-    <t>Name of the Tank</t>
-  </si>
-  <si>
     <t>Must match feeding method in database. Eg Automatic</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Use same format for columns as feed types 1-3</t>
+  </si>
+  <si>
+    <t>Name of the Tank. E.g. LP1</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A2:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,37 +510,37 @@
     </row>
     <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
